--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/60_Muş_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/60_Muş_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1A76BD-A3D6-457D-BDF6-2B42E88DC167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5B44C2-653C-4C5A-A74D-C68DAFCB43BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{A8CF4C99-02B0-45E7-96CF-55A839577D53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{F475DEC7-E6F5-484D-AE1A-32E303E5739B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -981,13 +981,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1F34BC5D-F56D-419B-A63C-FA56394B053D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{97BF6F42-0A37-46B1-8E33-73AD5BA9CCB9}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{27597734-F60A-480B-B800-50D86CB707F5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0B01CF4D-1D18-4982-B46B-70E4AC4251ED}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EBCF48EA-FC77-4639-B52F-04F5EB6100EA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2EA109B1-2225-4329-850C-29CCBE55C680}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F230DF59-A87E-467B-9554-F5B546C90452}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7AB1C05A-FF9E-456C-B939-DC2C4FCB3DF1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F4C8151D-ADC7-4264-90B9-920BD0A95307}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D4A0BDE5-CDE2-42F8-BB39-562FD60C43B8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{52FBB7BF-E124-43F0-9193-18E4D7283549}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FCE36C10-B6B4-4E5E-BD63-52377970AD47}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{EC2A00E8-1723-4D80-8E8B-92E88DB70F52}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{02A52490-BA66-49B4-B68D-CCFA2213C270}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E649D2-1469-44D4-BC97-9679B4621277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC45AD6-F559-446F-88DE-F2C4B99EDD45}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2604,18 +2604,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D52D6C0A-DDA1-4634-BF5F-72002099E75B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DF97E6D-A186-4D52-ADEA-ABC083F99D8D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1AED33B-F000-4515-8CE1-8C19C2B9EDDD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{277B50B9-2E77-4A4D-8257-6333F4BA1869}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FEC7553-367C-438B-916F-438D81EEE6C0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E284C5F6-D707-40A7-A082-0EB5D2D730B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C8B9B91-B75E-42E8-AFCA-E3C17E9E472F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15E7D921-61C2-401B-AC37-E51C9C95C532}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{032C1B23-D751-41DA-B00D-64E88A57F36A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A5AEB765-D239-43A3-B137-5FD2196D4F14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A54C3AFC-802C-4E65-87F7-FBCA2CD51305}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B83A192-798B-4FDE-907A-5B1D3D153221}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B02DEBB8-E912-4EF3-AED7-B4F70AA9C252}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5627814B-8BBD-4EB1-A3CA-0E41FC8AE0AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4158FD13-558E-4305-A7D4-6FFB69A24D4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94A06824-B8A4-4227-B5BB-3BB8484B0078}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC09D3E3-2AC7-4C67-A747-C7CFF505133E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B53E14F2-8788-4B1E-A84A-84AD3B64EA3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D79DCA2D-2D9A-4DE4-A768-631611DAF64C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C24A881-01FB-41F2-B05F-A45ECBD6EE29}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D03C4B2C-C1F7-4200-A7CA-CFC2236D5B82}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4E6B7A8-45ED-4E20-AEE8-D0A86C2224ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{916B598E-2251-4120-8F73-D8510D3C9A50}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB9E8521-9746-4D1D-B416-DB7C5C7A13E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2628,7 +2628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE099844-FC98-4CEA-A127-664B651785E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4379C2A0-B151-47F6-9FF9-A8119EA02F02}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3849,18 +3849,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E82E697-970A-4495-B4C1-B9E844712E8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{689EAFDD-4407-42FF-A49F-6E07902AE9F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42496482-AE3A-4369-8641-DB3CBE10E7BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C6E476B-984B-426D-91D1-A3B3C3851301}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{993E1A86-A4CD-419A-8EED-FBFE1D031A23}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{164B3772-FE5F-4C06-B506-F4BC11E7BFE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EFFDFA4-43D3-478B-A9C2-F131907B0B8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{940DF5FB-B4C8-4729-9A7C-F7CC7C4F37D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B671A93-5557-43AA-956C-94D161A4EFDA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{821D464B-45AA-4E45-8D90-B03A8959C1AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEBC0311-5175-4462-B206-3F3928A77FB2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78DE0307-F1B3-4938-8567-19C0AF8B707B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B32B041-DB20-4979-B203-420881C59B6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80AEA47A-C3F1-4E73-823F-2F935667796A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{505DBC38-A23A-4664-8F9D-80C3E2FCAD36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6B04FCA-3F9B-4E0C-B2A4-D91D7A924BF3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23C31FED-2F52-42F7-B09B-355F1DF8000B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{43DF2821-32AA-4CF2-8050-CA6FD9905A7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7C3955B-E3C9-40F4-BD69-43A9A54598AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72973D78-84A5-4270-ACAE-06189549B5A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20C11261-0A01-4EF1-B5F2-B1ABCD02A03D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A37D39B1-7F2D-49B7-9B9C-13233045D096}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{640CE968-1C7B-48A3-8196-2BED731D872E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1EBBFE9-FBF8-497E-9AAD-E5954AFBA0C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3873,7 +3873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A791E6-32E9-4862-B2FC-DA1E78C6B1DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E7B8B4-B186-4678-9AFC-A8967F3451DE}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5078,18 +5078,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E940EB51-5546-48E2-A1C1-18C39D580274}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6EF2E7B-323C-4E0E-A6C7-832AD042D22A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCE4B073-E705-428A-8F56-4A7A52851E4A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBEBA1EF-D710-4E97-B1DA-ACCB554AC0E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A321CF9-ECD0-4471-898D-4D171533BA6B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{26F21719-81DE-4D99-8C5C-48DAA065D147}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF6552E0-A4D4-4EFB-93CD-E647ACCD32E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0AC5520-14D6-4E5E-ACDE-5E5580D42397}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42DD5731-8049-48A2-8C0F-B47FF25DAA0F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D726B76B-A28E-408E-BD65-E62CA35392B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDDC7B60-9308-435F-A5EA-1E6B467C3E6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8104ADFA-2A4A-4D64-BD1C-F1882311EA8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{450E8838-AF4E-40DB-906E-B2F3170F85E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{548E18E5-A561-40DE-BAB1-01B37C474BBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12EAF8CE-0CD7-4609-9946-822C9A759702}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F5CA3D8-5D2F-4C8B-BE8C-B3551A608E52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2006C541-C7B1-4781-AED4-1413B3376A3A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE675EEA-F042-4992-80CD-37A64C78814B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90BB82F1-6093-4E9C-8551-975538E43BF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9483E918-EA72-4E47-AA6E-E5BD563324F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81D7F66E-A33C-497A-8ECB-22E39CD11209}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A4523B0F-1C2F-479D-94B8-CA5F33CA8A60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DDB228D-54DE-4616-8FF2-B26F404F04D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5921E8B8-FA1C-45C6-9874-091C7027C6E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5102,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAF3539-A6B3-4CA6-A4C4-11C98FC95C8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0E621-B922-4F02-BEAF-9E76F49EA903}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6292,18 +6292,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B3DF53D-2867-4A58-A44E-7599DC4C8BCE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2211FBC-AD29-4F50-9E5B-54BD2FBB12E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{08942CF4-0FC7-4584-9615-1F862872547F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE578BCD-F208-47E7-A927-0678E1A606C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{973248E9-B5AE-42A3-9209-C1AB7C7FEEB7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7FC2FF9C-6727-4A46-B00E-6D8BD3B467AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{546E5911-DFBD-446B-B99C-6FE4084A1BB9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D38C55A-449F-4444-96BF-DFCA8D1395DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0C31390-D1CF-4D9E-9DCA-D352C53E1E32}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C831B2CE-24E1-4B68-8894-E23CEB6748B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68B2C744-0368-4E1A-9C63-927EDF5E95A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49D8273A-D9A8-45E7-AF3F-59774ADFB686}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA706A6C-EC90-4C86-ABC1-FC183B8624C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7EFA2A3-A11F-4824-9642-9140535F1F28}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D10A5C8C-1E89-4B10-B830-2BE80026DE6B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D302DF27-CC51-4342-97CB-AFA0DDD45261}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29C8B9B1-17BC-4351-8C8C-9476454533E1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BF351527-DA97-40F6-A93C-A6582E9CF344}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB87D215-2810-4924-9CF6-94953E404264}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{852F7EAB-C34A-4EB0-BF62-D3776D437767}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFC9AF47-9878-45E3-B904-46D446DFC865}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{00B2AEAF-6CEC-40C7-93A5-C39F7047FC49}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{118C4222-939D-4055-8C38-4AD25BCAB976}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0D7681D-67BE-4D0C-9B35-7140615CB714}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6316,7 +6316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2407A07-5917-4C5E-BCFB-3CC8DA5FE0DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F80DCD-DA85-4B49-BC49-17630D13B305}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7563,18 +7563,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{011B2D5C-5C75-47E5-8052-A938A35D9CFE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0083279-3630-4C39-B289-A01D521DC001}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCB6AFE9-2D97-4577-A81A-1FFC7C32BCBD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E16153D-88AE-4D3D-AB08-DC6764F60975}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D349AE27-2B70-400D-BD65-F44DE1078E0A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{02FCB18F-9FD8-4D16-97B8-FD8445306B3A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5ECC89EC-8DF1-4E40-A122-6B199359A971}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D908FBD-9221-4F79-B613-38A688B315D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6E2F109-2CAF-4ACF-AFAD-6F076554FDF4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{14862297-3573-4A92-A13D-A0AB5E88FB01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBAD22B4-31D4-446E-B4CF-3832ED62138A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8D09DD9-D230-4FD3-845C-636D5DE992DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E06558C5-82CF-4773-8C0A-B79A2BFA312A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04B621C6-17E1-41A4-A3B7-5C75CE01F1D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C595CCDE-6A5B-4763-B47B-13E164F1A84E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{625DD43D-DC88-4AE1-A96D-AA02463F2CEC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{466607E5-F029-426E-940F-0B4FB93AE745}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{67C31B98-11BF-45F3-934B-4698749A55A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC5A3558-3586-478E-9AFA-D8A48565F325}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E878ED99-21BF-4A7F-A41A-BDCFC45B300C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76BD1A57-87DF-4464-9BBE-089A14FB4E73}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F9544A1-8BB3-464E-AC29-A6B77244A94D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62C42AAF-B480-4D49-915E-0C3FF310A29B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F2A9BA0-6802-421E-8FC4-7E556E65B5BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7587,7 +7587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD4D3AF-6EE1-48E9-85C2-27BB948D59C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59E66C3-208F-437A-B72E-D25E61154BE9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8834,18 +8834,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94851F5C-51C3-4DDB-8DC9-2741E60FF0FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E151A2D-5A13-4B8E-BDBF-4530FC02C1E3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF37CB84-ED38-4D73-871B-CBC38E8EB01C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F33646D-F0DE-427E-A077-5E2D97654468}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92ACDABE-2594-41A3-A40A-764E14F3988C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3CE1B0B7-5429-46F7-B3A4-A9B1E336241A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDA244F8-C347-43AF-97F6-104AC8467A29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FA438A3-3BC3-43EC-B912-6B6A755B733F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37A4063F-C6C5-4AAD-8838-A908D0F6C451}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{645240C5-086D-4E46-A17D-7EAF7D523EC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AFA21A1-C110-48BB-9FA9-416E43A6E348}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07F4F446-E2AE-462E-BE1C-BEE66AD02F9F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1112ADA-4F22-4515-BDE4-69FDE5AAD146}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9A65C34-BC74-4F3E-A4B5-D13613872FCF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D16D8DE-3355-4470-A1D6-FCF63531A197}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{425436D5-EA3F-484E-ACD7-E904B4D9791A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BAD909F-3EBF-45EF-9CE9-6A5C0E6C2891}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58DC3686-B26B-4914-8B7C-3BF60DC65363}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF8C9375-0784-486D-BB5E-A540FDD09D89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFDBB50A-0081-47D0-98FC-1BAAF02446A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CA33D08-4236-4F40-878D-472BF2EB95A2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E81DE9F0-3384-4455-9F38-44E93FDA3326}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04E6FDFA-8EA0-451D-981D-F81D1064CFD4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB499828-730B-4DE7-B151-609BEF255EBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8858,7 +8858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C5B675-DD04-4845-BC7A-356A332C3EBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BED38D6-C260-4A92-9F4E-3DC0A913B17A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10105,18 +10105,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6F57BBC-CD3F-4B80-9336-7698C83928F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC513FF3-6493-45ED-946C-EC3F446D823E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2702A5E5-2B98-454D-A425-867367019C34}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{057280E4-2665-459B-B52A-4915DCFAC43F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F232B006-241D-412D-95FA-D64834073CC9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{518D8FBB-FC72-4205-81E2-CAB10C068C81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D08D3307-70F9-49DF-80A5-5AE1C3AEA367}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DBEA37F-AA63-43D8-B129-A7CCD8FCA1F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FD3B496-4A8F-4E86-B754-233B29E017F0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB877FB5-640F-40B9-8078-6E012D098ABA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76C13860-DDA3-4F62-A894-5CDC4566D1F7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ACB5132A-F892-4858-8171-1E6D6864695B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46B76790-3E7B-40F1-B66A-FA71B0528D62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63F4C75E-8F66-4F33-960C-E11846F84CAE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CE879BF-0202-4F5B-B5B1-7887C0B34EBF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3C0829F-65AC-4B58-82DF-62B40FA81F42}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{272727DB-D6F5-4E83-9EF8-AF5CF3028134}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A651C6DF-9B2A-49D0-9E41-103873FE94A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7961F839-208F-4FE5-B1BE-8F7F0066B869}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F0FB01D-E732-4F87-97B6-7D10E155FE95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F74BA084-25A1-4E9E-9877-2688A6F36716}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0D073985-DC82-4323-AF3C-D8DDCEAC4A9C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E5CBDBD-7964-417B-916D-171F6CAF8C6C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFBBCAB8-D0C8-4BF9-9286-93D98A98452F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10129,7 +10129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D2BD0-3C53-4875-BF81-45892627C6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A844E0-FCA2-4AE8-8ABE-A5ECDF52EF04}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11372,18 +11372,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D2A6EA7-7FDA-4D27-B825-E7992C9E39FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33DF3587-38AE-4CAE-8887-EFBCEA1185EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80EF247C-1E0C-4EE2-B88E-C269C08A755F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33DE69EB-644E-4E69-8A5D-AB0494C08D93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB6C87CC-62A7-4ED3-99F8-6A928DB08B2E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{34362B76-1A88-4A0F-B9BD-443A6DFACF85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52C90949-B1D8-434A-80AD-83AEB44D7930}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1C92C5B-70AB-4517-AC91-ED0F69A9E375}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F11D9468-A091-4450-9BC4-393927D34A1D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{10DFF1ED-7E29-44E4-BA6F-9B0622C2DD40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AE8E2B3-E0CE-4E6A-A924-9B586914C20C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7153815A-88DC-4C77-BF66-C1322D0F7216}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8038E128-7153-480E-B83F-1AFC3E2D7D83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B24A1CC-E361-490B-9EA0-CF741C5BFAE8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7230C26B-3751-4862-B98E-2D524AC4449C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B1481783-9A73-4A02-8B9B-567ED71D2147}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EFAFAA55-72CC-455A-9F89-18931757F2AB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5C592FFD-3484-47DD-9FD5-BBC07EDEA258}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C512DB4-CC00-47F6-9774-D7CF292B3E69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34129170-74C5-4A8A-8F7A-352C6371DE86}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F715ED9-CAA7-4C10-AA36-05641DBE5EB0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{94E87143-206A-4759-8610-A5EEA4B8D448}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D950414-174D-4368-85F2-34D91512AB57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5587376-6F85-4E4D-BADF-33EB42A71D70}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11396,7 +11396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F900E291-D415-4811-A2A5-B5AB5984C80D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D171BD1-A6F3-420A-80DD-BD6ABCC740B0}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12631,18 +12631,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C8CF674-C9A1-4ED4-8643-7C596FED408F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{934A9848-5EA4-49C7-9952-D8EA0D543674}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E7368B7-F58A-4AB4-B0CA-B2BBA9EB99E3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{031AADD7-1F53-47B4-8012-00AF50563A4C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB2012DC-E29E-48E6-856C-5D1F34CBD9ED}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18C152F5-D025-4EE0-8B9A-D219641D0418}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67D0FCD5-696B-423F-91BB-91780E491E9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{333C2D6D-A368-4BA2-9F63-4C026752F768}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D2F42A1-86C8-47B0-862F-555CDFB4035E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6392B39B-84E7-4C86-AD35-340D3331E0C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{629DC7A1-DA47-4AC0-96CB-0FBAAF221C74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED6B7C5F-8D00-4948-98E0-4C3F61CA2A03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AEF55B9-1006-45D9-B7BE-59FA0DD97FDC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F62DB2D2-4B23-4231-8518-6A9CD98A04E2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{497745C7-3BE4-4E29-8C75-969B644A3A6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{000899D2-B290-42AA-A878-CD99E16A6106}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{086F56D9-A716-4D74-A8F2-069CAE8DA4D1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98BB432E-3183-418F-B9CA-432C9717C3EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D64A7A35-8974-4761-AEC6-CAA5F99E4A80}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E720F2BE-3541-4042-9588-21B964C53498}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D15E168C-FEE5-464C-A03A-7117FA35F4A2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C248C505-B5CB-45C9-B12E-520A862EA2B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFC6BA0A-5112-4C98-8483-D8D49CD78363}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C688254D-DF27-4565-B349-F06ED6F14EB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12655,7 +12655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB06DFAE-80AF-435F-9D0F-5A6406E6F2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060DAC4D-F731-431D-99DE-A442B2B40534}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13876,18 +13876,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9731142-76C1-4EB2-9D6E-B03DC3943F15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84500C0A-D812-4F1B-93E5-64C9D143F0FB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1A43F44E-6AE7-4C1D-B1A8-93A0EF251DEE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{373E541E-074D-4655-8FEA-E347FEFB22BF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D77585D2-140A-4C1B-9FCE-41644C653AF9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8DE07B3D-4FD8-4F3A-BB43-2507608647AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{710336C0-2551-4AD6-BE72-0F1DDAC4A994}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77F98044-F4A6-482A-86E4-F27605568939}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5569F1D8-1AD3-42CB-9221-C2FABF02646F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1D5B601F-AE70-40F6-86A0-22E18DEE905A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21752763-0623-431E-AE3A-5E817A7C993E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96BB9587-3D29-409E-B756-2A047DCDD686}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4BCB43B-FB24-4D90-9A71-319713BD21CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06BBADFB-4EF7-4B0A-B087-FEF5D199AB1E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{141A428A-9354-4D31-A0E9-4BA4D222A76A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{45184185-22BF-4DA5-A429-9080C349509C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DF68122-318F-44F3-B15C-100692052F31}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{99F8DF77-7226-4329-B94A-C4E1BFC76640}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F1BCC3D-70E1-4909-8475-D6AD3B106DD6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{186744CF-B0C9-4DBC-9EAB-F49A8B8D5A4A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8178CCB-2476-424F-9E98-A2C6A899D4A9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8D9305B7-1EFF-47DF-BE4B-072E77B7BAC6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18515211-4A40-4EC4-B9BA-039371669368}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93567A2D-156D-4F14-8EEE-412D2BBBC9E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13900,7 +13900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959B55FF-443D-4297-AF64-C537D8B3A723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC2913-5239-4E8B-B984-1C5B149D01EC}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15119,18 +15119,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F0A361B-5777-4A17-BE85-32DEDECD33DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{248B5255-EA25-4D04-B341-5B120B2BA877}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87F10CD7-6856-4800-AC33-EBEE33AED14A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99F2E017-08E4-428B-B562-6B57C817154F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0CB3EAA1-6ABC-4F4A-B953-9A80E06F9661}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0788EF5F-7293-44BC-86FF-E41C4C0C260B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{269A447B-3001-42CE-A61D-1EC757678EB4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38DF2CEB-F3EB-4759-8F21-328046C817FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20055E36-8197-4120-B7B1-289247EEB2BD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BAD32773-8F8F-4A02-942B-84F9926CE321}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA3449AD-61BE-498A-8A49-2D0897CE4408}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F3C5D81-8190-46EA-A8D8-7ED2D8BDC8F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{762957DD-F2A3-48D8-A148-125109DF1A2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F233886E-6D6C-48D1-927C-6959D102F1FC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{421A3C43-59F4-4620-A254-51B5957BC498}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E4EB2C6-18A2-4D02-BD52-6E7CE0990075}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9A43EEB-6034-4FE9-BC7F-E44969670DB8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BC4CA854-A2A9-4CCB-82EB-E6FD9BB81BA0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D1C0592-45E0-452C-ABC3-5F88B1FCCF08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40FD4BE8-0400-4D3A-B9F9-3E26413EC9C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E289DA8F-A0DD-469E-BCA6-626410E0941D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A66F61B0-C86E-4F7D-9AFA-803B4DFE0F20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BFDAC637-0F1D-457D-AE9A-CB8A2256EEB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29F7958E-7F49-45CF-B2E0-4DE12034DA2D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15143,7 +15143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC47AD-355A-49BE-9856-C957736D1905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C612056-6C34-4A7A-B7E0-0A26FD4F5AC4}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16362,18 +16362,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{844F3A25-4289-4540-9FC0-CC7072BF4C18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DEA04636-50B1-4637-BDEA-B065350B20D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{052BD84F-13BF-4AEE-B896-DC086003852B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E99FA31F-26EA-4E91-9CBB-FC903306BBC1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{152A1FCC-74BA-4047-8910-B471A0ECDA81}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A2779530-CAB8-4530-BC86-6F83753B1E5A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE023605-6B16-4242-BBCD-69D86234B68C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88F228CB-115D-47C6-BA5F-F02DAC6A7317}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B60FFA23-D636-415D-A693-F18483390F34}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F9B9714-625D-42A8-9DE2-1E59B9DCACA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88FE0057-D537-42D8-9CA2-6B5E72DED9BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A762AF75-796F-4592-8330-055D125D4467}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65418485-2279-4BE0-861E-019EB0EB77AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF7D8F30-EEC2-43A7-85B6-E8576840C705}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B35D183-86B3-447F-97F0-A1A2292C7670}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0CC68FF-626D-47B7-8B92-9FFB3558AE66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{198F41EA-4F17-4BBA-9333-E1D91662BCE3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{705DE355-F0B5-4C71-BA88-252A59567F27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF9B193F-6DCE-46E5-BE3D-A84488920588}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24973ED1-DDA5-4241-9A34-FC01729B98D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48CD793A-E7AA-4A14-90AC-B164D255484D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B07F01E8-22DE-42DC-A45C-CD65F357F9F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E1F17BF-7C03-48A7-82A7-CEAA5E251250}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E33D9B56-3C71-49FD-91DD-209B38BA4D9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
